--- a/data/trans_bre/P1423_2016_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1423_2016_2023-Estudios-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.827909244550527</v>
+        <v>5.02204109774306</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.414268061290489</v>
+        <v>4.008218915937561</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.8649912742902548</v>
+        <v>0.9039405674096463</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.4331803668018323</v>
+        <v>0.3517007094035848</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.01117396783813</v>
+        <v>10.19441921715707</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.02896503003451</v>
+        <v>10.44587557370412</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3.125218987295041</v>
+        <v>3.264043612822574</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.598346209511424</v>
+        <v>1.597616079772669</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>4.045797744913004</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.602578412749367</v>
+        <v>2.602578412749364</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>2.399743688111293</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.6058510774760825</v>
+        <v>0.6058510774760818</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.768252472155095</v>
+        <v>2.952439662696667</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.358634792799034</v>
+        <v>1.255142022343826</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.282100995543781</v>
+        <v>1.292334542384498</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2606510433903666</v>
+        <v>0.2403767021781764</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.330537480373016</v>
+        <v>5.383380470740824</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.86294615228667</v>
+        <v>3.883563595279438</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.986014503579267</v>
+        <v>4.222081282768387</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.082204143414294</v>
+        <v>1.070939465439268</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>1.529020655345599</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2914258134199585</v>
+        <v>0.2914258134199592</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>2.571715949883595</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.0743293327898973</v>
+        <v>0.07432933278989748</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1317295109310244</v>
+        <v>0.1490304591793763</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.951618710134821</v>
+        <v>-1.692600258737362</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2986330303147018</v>
+        <v>-0.4050411307073606</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3810215186167014</v>
+        <v>-0.3414939290181803</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.325637257346891</v>
+        <v>3.474798437259467</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.297629936575383</v>
+        <v>2.210035698414195</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>14.49088911604536</v>
+        <v>16.01027504836127</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.8293324202619984</v>
+        <v>0.7963560854269838</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>4.754586148295585</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.397556561306621</v>
+        <v>3.39755656130662</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>2.27576458899137</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.7048272080070113</v>
+        <v>0.704827208007011</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.795097028658629</v>
+        <v>3.735332289413715</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.322614374528682</v>
+        <v>2.381906944126375</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.567094942178584</v>
+        <v>1.571073859098087</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4312461829259018</v>
+        <v>0.4230408847323258</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.727202594403514</v>
+        <v>5.809592485690882</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.480041399631913</v>
+        <v>4.386019547631097</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.360756728540377</v>
+        <v>3.445685242297393</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.066978855600266</v>
+        <v>1.027344197586962</v>
       </c>
     </row>
     <row r="16">
